--- a/data/outputs/OR_elsevier/59.xlsx
+++ b/data/outputs/OR_elsevier/59.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS125"/>
+  <dimension ref="A1:BU125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84929577362</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2954</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84955258455</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2998</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1391,12 @@
           <t>2-s2.0-84929573822</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2519</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84939784880</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1803,6 +1837,12 @@
           <t>2-s2.0-84943517691</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1707</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2028,6 +2068,12 @@
           <t>2-s2.0-84935852307</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3845</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2241,6 +2287,12 @@
           <t>2-s2.0-84937251763</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>599</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2462,6 +2514,12 @@
           <t>2-s2.0-84942774784</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1719</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2683,6 +2741,12 @@
           <t>2-s2.0-84940385664</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1840</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2896,6 +2960,12 @@
           <t>2-s2.0-84922550724</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>906</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3109,6 +3179,12 @@
           <t>2-s2.0-84922537122</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1811</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3330,6 +3406,12 @@
           <t>2-s2.0-84946129271</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1033</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3543,6 +3625,12 @@
           <t>2-s2.0-84930946017</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2245</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3756,6 +3844,12 @@
           <t>2-s2.0-84926431111</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1049</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3967,6 +4061,12 @@
           <t>2-s2.0-84925727351</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4180,6 +4280,12 @@
           <t>2-s2.0-84924232159</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1259</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4401,6 +4507,12 @@
           <t>2-s2.0-84944672910</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1071</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4614,6 +4726,12 @@
           <t>2-s2.0-84937252557</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>833</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4827,6 +4945,12 @@
           <t>2-s2.0-85027920026</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1301</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5044,6 +5168,12 @@
           <t>2-s2.0-84938848802</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>869</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5257,6 +5387,12 @@
           <t>2-s2.0-84935898956</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5462,6 +5598,12 @@
           <t>2-s2.0-84923101203</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5675,6 +5817,12 @@
           <t>2-s2.0-85027925079</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1075</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5900,6 +6048,12 @@
           <t>2-s2.0-84913587278</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1283</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6117,6 +6271,12 @@
           <t>2-s2.0-85027947860</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>820</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6334,6 +6494,12 @@
           <t>2-s2.0-84943778184</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1648</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6547,6 +6713,12 @@
           <t>2-s2.0-84931281720</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1130</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6768,6 +6940,12 @@
           <t>2-s2.0-84925635091</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1072</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6989,6 +7167,12 @@
           <t>2-s2.0-84926507663</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>785</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7210,6 +7394,12 @@
           <t>2-s2.0-84924160731</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1254</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7423,6 +7613,12 @@
           <t>2-s2.0-84937546873</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>708</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7636,6 +7832,12 @@
           <t>2-s2.0-84939651728</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>499</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7861,6 +8063,12 @@
           <t>2-s2.0-84944054558</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1563</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8082,6 +8290,12 @@
           <t>2-s2.0-84941272325</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>711</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8295,6 +8509,12 @@
           <t>2-s2.0-84921981990</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8516,6 +8736,12 @@
           <t>2-s2.0-84921022115</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8741,6 +8967,12 @@
           <t>2-s2.0-84919668297</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>693</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8954,6 +9186,12 @@
           <t>2-s2.0-84918560194</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1034</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9167,6 +9405,12 @@
           <t>2-s2.0-84935884904</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1062</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9376,6 +9620,12 @@
           <t>2-s2.0-84919359837</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9581,6 +9831,12 @@
           <t>2-s2.0-84944041663</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>677</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9790,6 +10046,12 @@
           <t>2-s2.0-84936765450</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1297</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10011,6 +10273,12 @@
           <t>2-s2.0-84936804410</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>519</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10216,6 +10484,12 @@
           <t>2-s2.0-84937974713</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>513</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10421,6 +10695,12 @@
           <t>2-s2.0-84920645081</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>581</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10634,6 +10914,12 @@
           <t>2-s2.0-84911491603</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1376</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10855,6 +11141,12 @@
           <t>2-s2.0-84946559552</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>750</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11076,6 +11368,12 @@
           <t>2-s2.0-84944338867</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1172</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11285,6 +11583,12 @@
           <t>2-s2.0-84935908127</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>664</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11494,6 +11798,12 @@
           <t>2-s2.0-84921681387</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11715,6 +12025,12 @@
           <t>2-s2.0-84922567051</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>627</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11932,6 +12248,12 @@
           <t>2-s2.0-84936889725</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12157,6 +12479,12 @@
           <t>2-s2.0-84930619041</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>337</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12362,6 +12690,12 @@
           <t>2-s2.0-84929359511</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>598</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12583,6 +12917,12 @@
           <t>2-s2.0-84925849507</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>637</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12796,6 +13136,12 @@
           <t>2-s2.0-84919642629</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>473</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13017,6 +13363,12 @@
           <t>2-s2.0-84936792330</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2999</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13226,6 +13578,12 @@
           <t>2-s2.0-84955330772</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>998</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13431,6 +13789,12 @@
           <t>2-s2.0-84923332072</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>455</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13648,6 +14012,12 @@
           <t>2-s2.0-84923197824</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>339</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13865,6 +14235,12 @@
           <t>2-s2.0-84945186696</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>645</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14082,6 +14458,12 @@
           <t>2-s2.0-84939781595</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>537</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14295,6 +14677,12 @@
           <t>2-s2.0-84935876493</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>770</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14512,6 +14900,12 @@
           <t>2-s2.0-84927930642</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14721,6 +15115,12 @@
           <t>2-s2.0-84923171688</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>591</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14926,6 +15326,12 @@
           <t>2-s2.0-84945188114</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>825</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15139,6 +15545,12 @@
           <t>2-s2.0-84940183934</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>875</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15352,6 +15764,12 @@
           <t>2-s2.0-84937539989</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>724</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15565,6 +15983,12 @@
           <t>2-s2.0-84937973353</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>802</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15784,6 +16208,12 @@
           <t>2-s2.0-84937973986</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16001,6 +16431,12 @@
           <t>2-s2.0-84929148408</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>748</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16214,6 +16650,12 @@
           <t>2-s2.0-84922561340</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1134</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16427,6 +16869,12 @@
           <t>2-s2.0-85027945164</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>728</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16632,6 +17080,12 @@
           <t>2-s2.0-84921965414</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16845,6 +17299,12 @@
           <t>2-s2.0-84922389776</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>656</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17050,6 +17510,12 @@
           <t>2-s2.0-84930937181</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1252</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17267,6 +17733,12 @@
           <t>2-s2.0-84934918746</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17484,6 +17956,12 @@
           <t>2-s2.0-84925387431</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>895</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17697,6 +18175,12 @@
           <t>2-s2.0-84924097297</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>422</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17902,6 +18386,12 @@
           <t>2-s2.0-84946569405</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>325</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18127,6 +18617,12 @@
           <t>2-s2.0-84946574248</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>587</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18344,6 +18840,12 @@
           <t>2-s2.0-84948441697</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>396</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18561,6 +19063,12 @@
           <t>2-s2.0-84944673552</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>450</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18782,6 +19290,12 @@
           <t>2-s2.0-84933576479</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>385</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18995,6 +19509,12 @@
           <t>2-s2.0-84925660759</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>603</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19212,6 +19732,12 @@
           <t>2-s2.0-84926355729</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>732</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19427,6 +19953,12 @@
           <t>2-s2.0-84923084049</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>551</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19640,6 +20172,12 @@
           <t>2-s2.0-84921671508</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>452</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19855,6 +20393,12 @@
           <t>2-s2.0-84919628857</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>787</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20068,6 +20612,12 @@
           <t>2-s2.0-84919596949</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>910</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20281,6 +20831,12 @@
           <t>2-s2.0-84922387101</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>755</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20502,6 +21058,12 @@
           <t>2-s2.0-84921441535</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>664</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20707,6 +21269,12 @@
           <t>2-s2.0-84943394965</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>773</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20924,6 +21492,12 @@
           <t>2-s2.0-84939807679</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>520</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21141,6 +21715,12 @@
           <t>2-s2.0-84939129152</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>365</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21358,6 +21938,12 @@
           <t>2-s2.0-84938834960</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>734</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21579,6 +22165,12 @@
           <t>2-s2.0-84940461986</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>584</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21788,6 +22380,12 @@
           <t>2-s2.0-84937622263</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>407</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21997,6 +22595,12 @@
           <t>2-s2.0-84937232409</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>625</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22210,6 +22814,12 @@
           <t>2-s2.0-84936817600</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>432</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22423,6 +23033,12 @@
           <t>2-s2.0-84928639378</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>387</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22644,6 +23260,12 @@
           <t>2-s2.0-84929193223</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>466</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22857,6 +23479,12 @@
           <t>2-s2.0-84922927835</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>458</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23070,6 +23698,12 @@
           <t>2-s2.0-84923171686</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>657</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23291,6 +23925,12 @@
           <t>2-s2.0-85027949599</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>301</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23512,6 +24152,12 @@
           <t>2-s2.0-84912535998</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>881</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23729,6 +24375,12 @@
           <t>2-s2.0-84969812405</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>434</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23934,6 +24586,12 @@
           <t>2-s2.0-84944892303</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>522</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24143,6 +24801,12 @@
           <t>2-s2.0-84944104848</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>321</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24348,6 +25012,12 @@
           <t>2-s2.0-84935892977</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>450</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24561,6 +25231,12 @@
           <t>2-s2.0-84930620831</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>548</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24770,6 +25446,12 @@
           <t>2-s2.0-84930628384</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>352</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24983,6 +25665,12 @@
           <t>2-s2.0-84928992765</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>502</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25204,6 +25892,12 @@
           <t>2-s2.0-84925815535</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>389</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25409,6 +26103,12 @@
           <t>2-s2.0-85027918242</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25636,6 +26336,12 @@
           <t>2-s2.0-84911904147</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>745</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25849,6 +26555,12 @@
           <t>2-s2.0-84919666187</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>679</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26062,6 +26774,12 @@
           <t>2-s2.0-84917709356</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>383</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26277,6 +26995,12 @@
           <t>2-s2.0-84943514682</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>232</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26482,6 +27206,12 @@
           <t>2-s2.0-84941313294</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>505</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26691,6 +27421,12 @@
           <t>2-s2.0-84955269799</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>392</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26900,6 +27636,12 @@
           <t>2-s2.0-84927946985</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>349</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27121,6 +27863,12 @@
           <t>2-s2.0-84911937986</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>755</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27336,6 +28084,12 @@
           <t>2-s2.0-84913570472</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>402</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
